--- a/data/trans_camb/P15B_3_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P15B_3_R-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-17.54136326870027</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-7.91167233924604</v>
+        <v>-7.911672339246037</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-43.28345692697545</v>
+        <v>-45.48991560153837</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-56.5107356971052</v>
+        <v>-57.82976769019967</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-39.27819064974148</v>
+        <v>-40.91570677487933</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.752409051824948</v>
+        <v>1.742714875565252</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.108939585522094</v>
+        <v>2.149598251699445</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-27.54182698010305</v>
+        <v>-28.323079892007</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-33.96161731483194</v>
+        <v>-33.07947648562356</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-26.50986721725987</v>
+        <v>-24.42662030581821</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.689817847621104</v>
+        <v>3.566605536971823</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-9.315482758547089</v>
+        <v>-10.25750032691919</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.49664889570861</v>
+        <v>12.98283624173338</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.82154526614296</v>
+        <v>19.60823304861434</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.03492743421094</v>
+        <v>15.90214337371851</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.53420067782427</v>
+        <v>12.24597906154437</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.760606891145529</v>
+        <v>5.284082172922444</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-4.526104089796963</v>
+        <v>-2.844824522891148</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.77207129320341</v>
+        <v>9.151875109844951</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.7218278635629919</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.3190537215155292</v>
+        <v>-0.3190537215155294</v>
       </c>
       <c r="F7" s="6" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>-0.6665538431789958</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.3006354479362053</v>
+        <v>-0.3006354479362052</v>
       </c>
     </row>
     <row r="8">
@@ -786,25 +786,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7005773285921776</v>
+        <v>-0.7278475354937437</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.9278515414763117</v>
+        <v>-0.909217342423281</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6917622595380561</v>
+        <v>-0.7176978172408994</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.6963871924211092</v>
+        <v>-0.7040042674827943</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8711096537720758</v>
+        <v>-0.8742439244756846</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.693354257047334</v>
+        <v>-0.6605041675968578</v>
       </c>
     </row>
     <row r="9">
@@ -815,25 +815,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.209320524606368</v>
+        <v>0.2034897519246319</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2201952967484135</v>
+        <v>-0.2791315724196204</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6838914421917809</v>
+        <v>0.5311225031661733</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>0.4021976527037864</v>
+        <v>0.3986994160239323</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2118193645727942</v>
+        <v>-0.151394144271964</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9571981168184034</v>
+        <v>0.7332458043857634</v>
       </c>
     </row>
     <row r="10">
@@ -883,31 +883,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-31.68360819892134</v>
+        <v>-33.82876193665879</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-33.05673726233148</v>
+        <v>-33.78847002132456</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-30.75352280080212</v>
+        <v>-30.74236274374407</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-17.33084625510445</v>
+        <v>-17.22795397491298</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-22.9137523894971</v>
+        <v>-23.03708853318284</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-15.47705365596538</v>
+        <v>-14.26552624325134</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-23.29949412712752</v>
+        <v>-24.48834569995535</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-25.00708904285176</v>
+        <v>-26.7325423280018</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-19.7818911650729</v>
+        <v>-22.50718751402162</v>
       </c>
     </row>
     <row r="12">
@@ -918,31 +918,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.905586571082542</v>
+        <v>2.608117020840315</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.401323698089182</v>
+        <v>2.349425901082313</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.978398587548252</v>
+        <v>5.341693573434477</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.495319807105755</v>
+        <v>5.316832799297744</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.2607290579093</v>
+        <v>11.50018686996014</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6012910952705594</v>
+        <v>-0.9917806455272191</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.571907451545733</v>
+        <v>-1.990654230224589</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.270965365352449</v>
+        <v>2.886788093103689</v>
       </c>
     </row>
     <row r="13">
@@ -988,25 +988,25 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6867877823640023</v>
+        <v>-0.6880963849161387</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7360367449182803</v>
+        <v>-0.7376255691909174</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6770161154158255</v>
+        <v>-0.6658094957914308</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.7285466754659227</v>
+        <v>-0.7361245911818795</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8058257322483775</v>
+        <v>-0.8190268039704917</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6331831066159956</v>
+        <v>-0.6943286448114445</v>
       </c>
     </row>
     <row r="15">
@@ -1017,25 +1017,25 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.08102767511091834</v>
+        <v>0.179888037786756</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.08983109644938839</v>
+        <v>0.152828929321276</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3010790440479685</v>
+        <v>0.2597901737101792</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>0.07568888714926442</v>
+        <v>-0.03089443592168029</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.0680562937970757</v>
+        <v>-0.09840553177627373</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3511239931332487</v>
+        <v>0.1912400500712289</v>
       </c>
     </row>
     <row r="16">
@@ -1085,31 +1085,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-44.43948536266712</v>
+        <v>-45.83590530608804</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-53.16594195237982</v>
+        <v>-52.79343520582428</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-47.60071379878033</v>
+        <v>-48.18908848535719</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-38.46939684386834</v>
+        <v>-38.70085273220909</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-33.47485716146719</v>
+        <v>-34.03866901778438</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-43.54467730831587</v>
+        <v>-45.57625507301572</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-35.76681838154231</v>
+        <v>-35.01943677998474</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-35.71485734913163</v>
+        <v>-36.81130826324799</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-41.31936954633858</v>
+        <v>-41.15588471317788</v>
       </c>
     </row>
     <row r="18">
@@ -1120,31 +1120,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.283471797054519</v>
+        <v>1.081803827806337</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.568921297296695</v>
+        <v>-3.4770970488019</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.145761600717862</v>
+        <v>3.313275192632239</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09165249549815029</v>
+        <v>1.160300532070468</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>12.50753542287869</v>
+        <v>12.08101853244737</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-6.172319534084314</v>
+        <v>-6.471845937942382</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-2.974950429993815</v>
+        <v>-4.348376182762484</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-2.949304322719183</v>
+        <v>-3.103568797138814</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-10.4380186737943</v>
+        <v>-10.89386614065152</v>
       </c>
     </row>
     <row r="19">
@@ -1190,31 +1190,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7526365834402179</v>
+        <v>-0.7639962884537781</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8834745458745721</v>
+        <v>-0.8870630510310979</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8293282085103515</v>
+        <v>-0.8362986357700406</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.9316756510889993</v>
+        <v>-0.9279432980225637</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8284063502118429</v>
+        <v>-0.8406265239642374</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9768314575661409</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7515727053999964</v>
+        <v>-0.7501074624986664</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7818064153562989</v>
+        <v>-0.7886461451772386</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.8735204185666108</v>
+        <v>-0.8733674486259347</v>
       </c>
     </row>
     <row r="21">
@@ -1225,31 +1225,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.03961963307895624</v>
+        <v>0.0761712925156635</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.02969859071143187</v>
+        <v>-0.0663895906128648</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1380142166235281</v>
+        <v>0.1291393658534533</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2683614036469715</v>
+        <v>0.3866976110266</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.075168058245198</v>
+        <v>1.233840701146721</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.3816391902078052</v>
+        <v>-0.3282145026709148</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1208476869445385</v>
+        <v>-0.1201334184612014</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.08399072955599043</v>
+        <v>-0.04723892428980811</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.3802330467326288</v>
+        <v>-0.3239531005813132</v>
       </c>
     </row>
     <row r="22">
@@ -1270,7 +1270,7 @@
         <v>0.7725751804172662</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.968295725662383</v>
+        <v>5.968295725662386</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.118832754279561</v>
@@ -1279,7 +1279,7 @@
         <v>5.588587360378143</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.12199891820692</v>
+        <v>6.121998918206915</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.88696264483591</v>
@@ -1299,31 +1299,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.787910361596198</v>
+        <v>-5.63088644890105</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-13.90955382655293</v>
+        <v>-12.8535796909682</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.564713263477664</v>
+        <v>-7.353781542904462</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-15.87002189728124</v>
+        <v>-15.94152142769397</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.267061322791797</v>
+        <v>-9.328202638031417</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.162093721246145</v>
+        <v>-9.082066988133205</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-5.561870254571493</v>
+        <v>-5.566351657186281</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.980671261536976</v>
+        <v>-6.790457264555033</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.498704644517114</v>
+        <v>-4.464498757104766</v>
       </c>
     </row>
     <row r="24">
@@ -1334,31 +1334,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.98837287563548</v>
+        <v>19.89414396112556</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.6097018866398</v>
+        <v>11.95300878056726</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19.94172267922148</v>
+        <v>20.98509917289605</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.976480858034901</v>
+        <v>4.965935831555863</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>14.49960432153985</v>
+        <v>14.8071727241292</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.80298512930041</v>
+        <v>14.1992606843334</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>11.79094416225672</v>
+        <v>12.23430100497677</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>10.25908278813134</v>
+        <v>10.30716715891524</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>13.79047267588219</v>
+        <v>13.25910210212591</v>
       </c>
     </row>
     <row r="25">
@@ -1375,7 +1375,7 @@
         <v>0.07276214933353915</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.5621019621971594</v>
+        <v>0.5621019621971596</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.2599188909799104</v>
@@ -1384,7 +1384,7 @@
         <v>1.29829898463169</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.422217184216397</v>
+        <v>1.422217184216396</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.4851259226374811</v>
@@ -1404,25 +1404,25 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4158277070940237</v>
+        <v>-0.4056176382687134</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7298660183765115</v>
+        <v>-0.7113796918312737</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.499401412505281</v>
+        <v>-0.4775181824747362</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>-0.4399428775623735</v>
+        <v>-0.4263022693048751</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5193148670330499</v>
+        <v>-0.5151091051942117</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.312286038711538</v>
+        <v>-0.3405332724231993</v>
       </c>
     </row>
     <row r="27">
@@ -1433,25 +1433,25 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.547923348923799</v>
+        <v>5.793407311471856</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.977074165497299</v>
+        <v>3.412956646139109</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6.316076092934024</v>
+        <v>6.704771169177956</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>3.688716753912901</v>
+        <v>4.119762550082264</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.961473206145458</v>
+        <v>3.69748121502122</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>4.309134235964979</v>
+        <v>4.318456395814409</v>
       </c>
     </row>
     <row r="28">
@@ -1472,7 +1472,7 @@
         <v>-17.15020112432522</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-9.575901295614766</v>
+        <v>-9.575901295614772</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-4.849381659781986</v>
@@ -1501,31 +1501,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-20.40921273872521</v>
+        <v>-19.95567750287934</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-27.50810459682201</v>
+        <v>-26.79069784339559</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-20.53945579062521</v>
+        <v>-20.86458673108203</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-13.46534848631506</v>
+        <v>-13.44036287664912</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-11.09981349430547</v>
+        <v>-10.96756351690562</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-11.32108019960937</v>
+        <v>-11.02349508568275</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-14.90219360866416</v>
+        <v>-15.5865378855076</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-18.60897311716856</v>
+        <v>-18.33705507040682</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-14.60201321101145</v>
+        <v>-15.15422183593438</v>
       </c>
     </row>
     <row r="30">
@@ -1536,31 +1536,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.2022318294924373</v>
+        <v>-1.341927186224041</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-7.649850593220557</v>
+        <v>-6.548574761850172</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6721315129983543</v>
+        <v>1.247502892506335</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.012510131180195</v>
+        <v>1.083548617903139</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.310077187492659</v>
+        <v>3.313219019436288</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.932057745026327</v>
+        <v>3.461031700676873</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.755865417210037</v>
+        <v>-1.800787126786703</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-5.131616708902043</v>
+        <v>-5.794970448619741</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.450824508757808</v>
+        <v>-1.134887753751064</v>
       </c>
     </row>
     <row r="31">
@@ -1577,7 +1577,7 @@
         <v>-0.5344755080836856</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2984270955909444</v>
+        <v>-0.2984270955909446</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.4794689030787955</v>
@@ -1606,31 +1606,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5108445388490752</v>
+        <v>-0.5207825382904867</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7035735003660327</v>
+        <v>-0.7057536117783039</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5292278098491162</v>
+        <v>-0.5521266338142355</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.7939768261919584</v>
+        <v>-0.8036901782591261</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6711783996992151</v>
+        <v>-0.7234786462889019</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6875007984092519</v>
+        <v>-0.6830553291012763</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5368601899088573</v>
+        <v>-0.5585593681243382</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6662882988840105</v>
+        <v>-0.6567115486927043</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5482703146512627</v>
+        <v>-0.5490245131717368</v>
       </c>
     </row>
     <row r="33">
@@ -1641,31 +1641,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01578920089952038</v>
+        <v>-0.04968700965529914</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.2737202846846338</v>
+        <v>-0.2609179519627544</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.0354033941866285</v>
+        <v>0.0705673970087769</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3155262866330699</v>
+        <v>0.3008771483069139</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6691252160170947</v>
+        <v>0.6437910598764823</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5852012178386889</v>
+        <v>0.7695310640450918</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.08074468347555895</v>
+        <v>-0.1020333192478772</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2877110748578448</v>
+        <v>-0.2745018252124504</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.08014938142980041</v>
+        <v>-0.0569697846162367</v>
       </c>
     </row>
     <row r="34">
